--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Hbegf-Cd44.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Hbegf-Cd44.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.0551393392112</v>
+        <v>7.379281</v>
       </c>
       <c r="H2">
-        <v>7.0551393392112</v>
+        <v>22.137843</v>
       </c>
       <c r="I2">
-        <v>0.267808834823357</v>
+        <v>0.2744121884499962</v>
       </c>
       <c r="J2">
-        <v>0.267808834823357</v>
+        <v>0.2744121884499961</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>51.231340724733</v>
+        <v>239.0839323333333</v>
       </c>
       <c r="N2">
-        <v>51.231340724733</v>
+        <v>717.251797</v>
       </c>
       <c r="O2">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="P2">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="Q2">
-        <v>361.4442473475966</v>
+        <v>1764.267519272652</v>
       </c>
       <c r="R2">
-        <v>361.4442473475966</v>
+        <v>15878.40767345387</v>
       </c>
       <c r="S2">
-        <v>0.03780014949164086</v>
+        <v>0.1121515860270763</v>
       </c>
       <c r="T2">
-        <v>0.03780014949164086</v>
+        <v>0.1121515860270763</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.0551393392112</v>
+        <v>7.379281</v>
       </c>
       <c r="H3">
-        <v>7.0551393392112</v>
+        <v>22.137843</v>
       </c>
       <c r="I3">
-        <v>0.267808834823357</v>
+        <v>0.2744121884499962</v>
       </c>
       <c r="J3">
-        <v>0.267808834823357</v>
+        <v>0.2744121884499961</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>117.027648407391</v>
+        <v>117.0512696666667</v>
       </c>
       <c r="N3">
-        <v>117.027648407391</v>
+        <v>351.153809</v>
       </c>
       <c r="O3">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="P3">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="Q3">
-        <v>825.6463660543611</v>
+        <v>863.7542102771097</v>
       </c>
       <c r="R3">
-        <v>825.6463660543611</v>
+        <v>7773.787892493988</v>
       </c>
       <c r="S3">
-        <v>0.08634680533197425</v>
+        <v>0.0549074352738067</v>
       </c>
       <c r="T3">
-        <v>0.08634680533197425</v>
+        <v>0.05490743527380668</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.0551393392112</v>
+        <v>7.379281</v>
       </c>
       <c r="H4">
-        <v>7.0551393392112</v>
+        <v>22.137843</v>
       </c>
       <c r="I4">
-        <v>0.267808834823357</v>
+        <v>0.2744121884499962</v>
       </c>
       <c r="J4">
-        <v>0.267808834823357</v>
+        <v>0.2744121884499961</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>138.334510383499</v>
+        <v>171.15883</v>
       </c>
       <c r="N4">
-        <v>138.334510383499</v>
+        <v>513.47649</v>
       </c>
       <c r="O4">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="P4">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="Q4">
-        <v>975.9692461771441</v>
+        <v>1263.02910220123</v>
       </c>
       <c r="R4">
-        <v>975.9692461771441</v>
+        <v>11367.26191981107</v>
       </c>
       <c r="S4">
-        <v>0.1020677011059515</v>
+        <v>0.08028868380948261</v>
       </c>
       <c r="T4">
-        <v>0.1020677011059515</v>
+        <v>0.08028868380948259</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.0551393392112</v>
+        <v>7.379281</v>
       </c>
       <c r="H5">
-        <v>7.0551393392112</v>
+        <v>22.137843</v>
       </c>
       <c r="I5">
-        <v>0.267808834823357</v>
+        <v>0.2744121884499962</v>
       </c>
       <c r="J5">
-        <v>0.267808834823357</v>
+        <v>0.2744121884499961</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>56.3734688812411</v>
+        <v>57.695868</v>
       </c>
       <c r="N5">
-        <v>56.3734688812411</v>
+        <v>173.087604</v>
       </c>
       <c r="O5">
-        <v>0.155312945225371</v>
+        <v>0.09862711817759588</v>
       </c>
       <c r="P5">
-        <v>0.155312945225371</v>
+        <v>0.09862711817759588</v>
       </c>
       <c r="Q5">
-        <v>397.7226779918425</v>
+        <v>425.754022510908</v>
       </c>
       <c r="R5">
-        <v>397.7226779918425</v>
+        <v>3831.786202598172</v>
       </c>
       <c r="S5">
-        <v>0.04159417889379047</v>
+        <v>0.02706448333963048</v>
       </c>
       <c r="T5">
-        <v>0.04159417889379047</v>
+        <v>0.02706448333963048</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>13.1389875660213</v>
+        <v>13.29805733333333</v>
       </c>
       <c r="H6">
-        <v>13.1389875660213</v>
+        <v>39.894172</v>
       </c>
       <c r="I6">
-        <v>0.4987480447421117</v>
+        <v>0.4945128143207339</v>
       </c>
       <c r="J6">
-        <v>0.4987480447421117</v>
+        <v>0.4945128143207338</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>51.231340724733</v>
+        <v>239.0839323333333</v>
       </c>
       <c r="N6">
-        <v>51.231340724733</v>
+        <v>717.251797</v>
       </c>
       <c r="O6">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="P6">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="Q6">
-        <v>673.1279487728675</v>
+        <v>3179.351839647454</v>
       </c>
       <c r="R6">
-        <v>673.1279487728675</v>
+        <v>28614.16655682708</v>
       </c>
       <c r="S6">
-        <v>0.07039629839826016</v>
+        <v>0.2021061701014403</v>
       </c>
       <c r="T6">
-        <v>0.07039629839826016</v>
+        <v>0.2021061701014403</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>13.1389875660213</v>
+        <v>13.29805733333333</v>
       </c>
       <c r="H7">
-        <v>13.1389875660213</v>
+        <v>39.894172</v>
       </c>
       <c r="I7">
-        <v>0.4987480447421117</v>
+        <v>0.4945128143207339</v>
       </c>
       <c r="J7">
-        <v>0.4987480447421117</v>
+        <v>0.4945128143207338</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>117.027648407391</v>
+        <v>117.0512696666667</v>
       </c>
       <c r="N7">
-        <v>117.027648407391</v>
+        <v>351.153809</v>
       </c>
       <c r="O7">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="P7">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="Q7">
-        <v>1537.624817305423</v>
+        <v>1556.554494966794</v>
       </c>
       <c r="R7">
-        <v>1537.624817305423</v>
+        <v>14008.99045470115</v>
       </c>
       <c r="S7">
-        <v>0.1608061226115082</v>
+        <v>0.09894761051887987</v>
       </c>
       <c r="T7">
-        <v>0.1608061226115082</v>
+        <v>0.09894761051887985</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>13.1389875660213</v>
+        <v>13.29805733333333</v>
       </c>
       <c r="H8">
-        <v>13.1389875660213</v>
+        <v>39.894172</v>
       </c>
       <c r="I8">
-        <v>0.4987480447421117</v>
+        <v>0.4945128143207339</v>
       </c>
       <c r="J8">
-        <v>0.4987480447421117</v>
+        <v>0.4945128143207338</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>138.334510383499</v>
+        <v>171.15883</v>
       </c>
       <c r="N8">
-        <v>138.334510383499</v>
+        <v>513.47649</v>
       </c>
       <c r="O8">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="P8">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="Q8">
-        <v>1817.575411880438</v>
+        <v>2276.079934446253</v>
       </c>
       <c r="R8">
-        <v>1817.575411880438</v>
+        <v>20484.71941001628</v>
       </c>
       <c r="S8">
-        <v>0.1900835959780509</v>
+        <v>0.1446866599220671</v>
       </c>
       <c r="T8">
-        <v>0.1900835959780509</v>
+        <v>0.1446866599220671</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>13.1389875660213</v>
+        <v>13.29805733333333</v>
       </c>
       <c r="H9">
-        <v>13.1389875660213</v>
+        <v>39.894172</v>
       </c>
       <c r="I9">
-        <v>0.4987480447421117</v>
+        <v>0.4945128143207339</v>
       </c>
       <c r="J9">
-        <v>0.4987480447421117</v>
+        <v>0.4945128143207338</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>56.3734688812411</v>
+        <v>57.695868</v>
       </c>
       <c r="N9">
-        <v>56.3734688812411</v>
+        <v>173.087604</v>
       </c>
       <c r="O9">
-        <v>0.155312945225371</v>
+        <v>0.09862711817759588</v>
       </c>
       <c r="P9">
-        <v>0.155312945225371</v>
+        <v>0.09862711817759588</v>
       </c>
       <c r="Q9">
-        <v>740.6903066841155</v>
+        <v>767.2429605604319</v>
       </c>
       <c r="R9">
-        <v>740.6903066841155</v>
+        <v>6905.186645043887</v>
       </c>
       <c r="S9">
-        <v>0.07746202775429246</v>
+        <v>0.04877237377834655</v>
       </c>
       <c r="T9">
-        <v>0.07746202775429246</v>
+        <v>0.04877237377834654</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.66480271275972</v>
+        <v>1.673314666666667</v>
       </c>
       <c r="H10">
-        <v>1.66480271275972</v>
+        <v>5.019944000000001</v>
       </c>
       <c r="I10">
-        <v>0.0631949070427279</v>
+        <v>0.06222529534320158</v>
       </c>
       <c r="J10">
-        <v>0.0631949070427279</v>
+        <v>0.06222529534320156</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>51.231340724733</v>
+        <v>239.0839323333333</v>
       </c>
       <c r="N10">
-        <v>51.231340724733</v>
+        <v>717.251797</v>
       </c>
       <c r="O10">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="P10">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="Q10">
-        <v>85.29007501685302</v>
+        <v>400.0626505377076</v>
       </c>
       <c r="R10">
-        <v>85.29007501685302</v>
+        <v>3600.563854839369</v>
       </c>
       <c r="S10">
-        <v>0.008919709220575439</v>
+        <v>0.02543132505579274</v>
       </c>
       <c r="T10">
-        <v>0.008919709220575439</v>
+        <v>0.02543132505579273</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.66480271275972</v>
+        <v>1.673314666666667</v>
       </c>
       <c r="H11">
-        <v>1.66480271275972</v>
+        <v>5.019944000000001</v>
       </c>
       <c r="I11">
-        <v>0.0631949070427279</v>
+        <v>0.06222529534320158</v>
       </c>
       <c r="J11">
-        <v>0.0631949070427279</v>
+        <v>0.06222529534320156</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>117.027648407391</v>
+        <v>117.0512696666667</v>
       </c>
       <c r="N11">
-        <v>117.027648407391</v>
+        <v>351.153809</v>
       </c>
       <c r="O11">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="P11">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="Q11">
-        <v>194.8279465365153</v>
+        <v>195.8636062851885</v>
       </c>
       <c r="R11">
-        <v>194.8279465365153</v>
+        <v>1762.772456566696</v>
       </c>
       <c r="S11">
-        <v>0.02037527380300872</v>
+        <v>0.01245072748316691</v>
       </c>
       <c r="T11">
-        <v>0.02037527380300872</v>
+        <v>0.01245072748316691</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.66480271275972</v>
+        <v>1.673314666666667</v>
       </c>
       <c r="H12">
-        <v>1.66480271275972</v>
+        <v>5.019944000000001</v>
       </c>
       <c r="I12">
-        <v>0.0631949070427279</v>
+        <v>0.06222529534320158</v>
       </c>
       <c r="J12">
-        <v>0.0631949070427279</v>
+        <v>0.06222529534320156</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>138.334510383499</v>
+        <v>171.15883</v>
       </c>
       <c r="N12">
-        <v>138.334510383499</v>
+        <v>513.47649</v>
       </c>
       <c r="O12">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="P12">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="Q12">
-        <v>230.2996681547368</v>
+        <v>286.4025805685067</v>
       </c>
       <c r="R12">
-        <v>230.2996681547368</v>
+        <v>2577.62322511656</v>
       </c>
       <c r="S12">
-        <v>0.02408493688309414</v>
+        <v>0.01820614124679218</v>
       </c>
       <c r="T12">
-        <v>0.02408493688309414</v>
+        <v>0.01820614124679217</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.66480271275972</v>
+        <v>1.673314666666667</v>
       </c>
       <c r="H13">
-        <v>1.66480271275972</v>
+        <v>5.019944000000001</v>
       </c>
       <c r="I13">
-        <v>0.0631949070427279</v>
+        <v>0.06222529534320158</v>
       </c>
       <c r="J13">
-        <v>0.0631949070427279</v>
+        <v>0.06222529534320156</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>56.3734688812411</v>
+        <v>57.695868</v>
       </c>
       <c r="N13">
-        <v>56.3734688812411</v>
+        <v>173.087604</v>
       </c>
       <c r="O13">
-        <v>0.155312945225371</v>
+        <v>0.09862711817759588</v>
       </c>
       <c r="P13">
-        <v>0.155312945225371</v>
+        <v>0.09862711817759588</v>
       </c>
       <c r="Q13">
-        <v>93.85070392116585</v>
+        <v>96.54334213046401</v>
       </c>
       <c r="R13">
-        <v>93.85070392116585</v>
+        <v>868.8900791741761</v>
       </c>
       <c r="S13">
-        <v>0.00981498713604961</v>
+        <v>0.006137101557449749</v>
       </c>
       <c r="T13">
-        <v>0.00981498713604961</v>
+        <v>0.006137101557449748</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.48500837742407</v>
+        <v>4.540576</v>
       </c>
       <c r="H14">
-        <v>4.48500837742407</v>
+        <v>13.621728</v>
       </c>
       <c r="I14">
-        <v>0.1702482133918034</v>
+        <v>0.1688497018860685</v>
       </c>
       <c r="J14">
-        <v>0.1702482133918034</v>
+        <v>0.1688497018860685</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>51.231340724733</v>
+        <v>239.0839323333333</v>
       </c>
       <c r="N14">
-        <v>51.231340724733</v>
+        <v>717.251797</v>
       </c>
       <c r="O14">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="P14">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="Q14">
-        <v>229.7729923370945</v>
+        <v>1085.578765138357</v>
       </c>
       <c r="R14">
-        <v>229.7729923370945</v>
+        <v>9770.208886245215</v>
       </c>
       <c r="S14">
-        <v>0.02402985667421931</v>
+        <v>0.06900845758231434</v>
       </c>
       <c r="T14">
-        <v>0.02402985667421931</v>
+        <v>0.06900845758231433</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.48500837742407</v>
+        <v>4.540576</v>
       </c>
       <c r="H15">
-        <v>4.48500837742407</v>
+        <v>13.621728</v>
       </c>
       <c r="I15">
-        <v>0.1702482133918034</v>
+        <v>0.1688497018860685</v>
       </c>
       <c r="J15">
-        <v>0.1702482133918034</v>
+        <v>0.1688497018860685</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>117.027648407391</v>
+        <v>117.0512696666667</v>
       </c>
       <c r="N15">
-        <v>117.027648407391</v>
+        <v>351.153809</v>
       </c>
       <c r="O15">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="P15">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="Q15">
-        <v>524.8699834973872</v>
+        <v>531.4801858179947</v>
       </c>
       <c r="R15">
-        <v>524.8699834973872</v>
+        <v>4783.321672361952</v>
       </c>
       <c r="S15">
-        <v>0.05489135319062433</v>
+        <v>0.03378532174419162</v>
       </c>
       <c r="T15">
-        <v>0.05489135319062433</v>
+        <v>0.03378532174419161</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.48500837742407</v>
+        <v>4.540576</v>
       </c>
       <c r="H16">
-        <v>4.48500837742407</v>
+        <v>13.621728</v>
       </c>
       <c r="I16">
-        <v>0.1702482133918034</v>
+        <v>0.1688497018860685</v>
       </c>
       <c r="J16">
-        <v>0.1702482133918034</v>
+        <v>0.1688497018860685</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>138.334510383499</v>
+        <v>171.15883</v>
       </c>
       <c r="N16">
-        <v>138.334510383499</v>
+        <v>513.47649</v>
       </c>
       <c r="O16">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="P16">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="Q16">
-        <v>620.4314379568501</v>
+        <v>777.1596756860799</v>
       </c>
       <c r="R16">
-        <v>620.4314379568501</v>
+        <v>6994.437081174719</v>
       </c>
       <c r="S16">
-        <v>0.06488525208572136</v>
+        <v>0.04940276305739343</v>
       </c>
       <c r="T16">
-        <v>0.06488525208572136</v>
+        <v>0.04940276305739343</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.48500837742407</v>
+        <v>4.540576</v>
       </c>
       <c r="H17">
-        <v>4.48500837742407</v>
+        <v>13.621728</v>
       </c>
       <c r="I17">
-        <v>0.1702482133918034</v>
+        <v>0.1688497018860685</v>
       </c>
       <c r="J17">
-        <v>0.1702482133918034</v>
+        <v>0.1688497018860685</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>56.3734688812411</v>
+        <v>57.695868</v>
       </c>
       <c r="N17">
-        <v>56.3734688812411</v>
+        <v>173.087604</v>
       </c>
       <c r="O17">
-        <v>0.155312945225371</v>
+        <v>0.09862711817759588</v>
       </c>
       <c r="P17">
-        <v>0.155312945225371</v>
+        <v>0.09862711817759588</v>
       </c>
       <c r="Q17">
-        <v>252.8354801968215</v>
+        <v>261.972473539968</v>
       </c>
       <c r="R17">
-        <v>252.8354801968215</v>
+        <v>2357.752261859712</v>
       </c>
       <c r="S17">
-        <v>0.02644175144123843</v>
+        <v>0.01665315950216911</v>
       </c>
       <c r="T17">
-        <v>0.02644175144123843</v>
+        <v>0.01665315950216911</v>
       </c>
     </row>
   </sheetData>
